--- a/biology/Histoire de la zoologie et de la botanique/Ghillean_Prance/Ghillean_Prance.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ghillean_Prance/Ghillean_Prance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Ghillean Tolmie Prance est un botaniste britannique, né le 13 juillet 1937.
 Après avoir passé 25 années au jardin botanique de New York, Prance est le onzième directeur des jardins botaniques royaux de Kew de 1988 à 1999.
@@ -513,7 +525,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Membre de l'Académie des sciences du Brésil
 1990 : médaille linnéenne
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces amazoniennes ont reçu l'épithète prancei en son honneur.</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>avec Marlene Freitas da Silva :
 Flora Neotropica : Caryocaraceae, New York, 1973, 75 p.  (ISBN 0-89327-294-9)
